--- a/Volumen Total/Peru/Q3_2023/chart_data-volume-weeks-queries.xlsx
+++ b/Volumen Total/Peru/Q3_2023/chart_data-volume-weeks-queries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11203"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josealonsoordinolaaucca/Documents/Documentos Barometro Xenofobia/BX-Hub/Volumen Total/Peru/Q3_2023/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\BX-HUB-Indicadores\BX-HUB-Indicadores\Volumen Total\Peru\Q3_2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95684712-4657-8747-8E79-4DF9A74E03BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39306147-FB9C-48F7-B37C-25D7CA8C6BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="500" windowWidth="18200" windowHeight="8500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1020" windowWidth="21624" windowHeight="11220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>Chart Data Export</t>
   </si>
@@ -140,6 +140,18 @@
   </si>
   <si>
     <t>Peru</t>
+  </si>
+  <si>
+    <t>2023-12-04 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2023-12-11 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2023-12-18 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2023-12-25 05:00:00.0</t>
   </si>
 </sst>
 </file>
@@ -481,15 +493,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X11"/>
+  <dimension ref="A1:AB11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -497,7 +509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -505,7 +517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -513,7 +525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -521,7 +533,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -529,7 +541,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -537,7 +549,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -545,7 +557,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -553,7 +565,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -626,8 +638,20 @@
       <c r="X10" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -699,6 +723,18 @@
       </c>
       <c r="X11">
         <v>2311</v>
+      </c>
+      <c r="Y11">
+        <v>3850</v>
+      </c>
+      <c r="Z11">
+        <v>5872</v>
+      </c>
+      <c r="AA11">
+        <v>3381</v>
+      </c>
+      <c r="AB11">
+        <v>6097</v>
       </c>
     </row>
   </sheetData>
